--- a/teaching/traditional_assets/database/data/finland/finland_office_equipment_services.xlsx
+++ b/teaching/traditional_assets/database/data/finland/finland_office_equipment_services.xlsx
@@ -591,112 +591,115 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0594</v>
+        <v>-0.0532</v>
       </c>
       <c r="G2">
-        <v>0.01671654929577465</v>
+        <v>0.02504862953138816</v>
       </c>
       <c r="H2">
-        <v>-0.001065140845070423</v>
+        <v>0.002060123784261716</v>
       </c>
       <c r="I2">
-        <v>-0.01241930107214032</v>
+        <v>-0.01282051282051282</v>
       </c>
       <c r="J2">
-        <v>-0.01241930107214032</v>
+        <v>-0.01282051282051282</v>
       </c>
       <c r="K2">
-        <v>-3.37</v>
+        <v>-2.62</v>
       </c>
       <c r="L2">
-        <v>-0.02966549295774648</v>
+        <v>-0.02316534040671972</v>
       </c>
       <c r="M2">
-        <v>0.387</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.02480769230769231</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.1148367952522255</v>
+        <v>-0</v>
       </c>
       <c r="P2">
-        <v>0.387</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.02480769230769231</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.1148367952522255</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>8.220000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="V2">
-        <v>0.5269230769230769</v>
+        <v>0.8726114649681529</v>
+      </c>
+      <c r="W2">
+        <v>-0.1578313253012048</v>
       </c>
       <c r="X2">
-        <v>0.1385864164928725</v>
+        <v>0.1072654182157499</v>
+      </c>
+      <c r="Y2">
+        <v>-0.2650967435169547</v>
       </c>
       <c r="Z2">
-        <v>14.0174870463715</v>
+        <v>4.491660047656869</v>
       </c>
       <c r="AA2">
-        <v>-0.1740873919037147</v>
+        <v>-0.05758538522637012</v>
       </c>
       <c r="AB2">
-        <v>0.07183085679385511</v>
+        <v>0.05992321584424368</v>
       </c>
       <c r="AC2">
-        <v>-0.2459182486975698</v>
+        <v>-0.1175086010706138</v>
       </c>
       <c r="AD2">
-        <v>16.8</v>
+        <v>17.8</v>
       </c>
       <c r="AE2">
-        <v>8.104163008975704</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>24.9041630089757</v>
+        <v>17.8</v>
       </c>
       <c r="AG2">
-        <v>16.6841630089757</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.6148544040635269</v>
+        <v>0.5313432835820896</v>
       </c>
       <c r="AI2">
-        <v>0.6000401213630044</v>
+        <v>0.5345345345345346</v>
       </c>
       <c r="AJ2">
-        <v>0.5167909418725565</v>
+        <v>0.2070707070707071</v>
       </c>
       <c r="AK2">
-        <v>0.5012643101308121</v>
+        <v>0.2091836734693878</v>
       </c>
       <c r="AL2">
-        <v>0.294</v>
+        <v>1.05</v>
       </c>
       <c r="AM2">
-        <v>0.291</v>
+        <v>1.044</v>
       </c>
       <c r="AN2">
-        <v>5.867970660146701</v>
+        <v>10.17142857142857</v>
       </c>
       <c r="AO2">
-        <v>-10.37414965986395</v>
+        <v>-1.380952380952381</v>
       </c>
       <c r="AP2">
-        <v>5.82751065629609</v>
+        <v>2.342857142857144</v>
       </c>
       <c r="AQ2">
-        <v>-10.48109965635739</v>
+        <v>-1.388888888888889</v>
       </c>
     </row>
     <row r="3">
@@ -716,112 +719,115 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0594</v>
+        <v>-0.0532</v>
       </c>
       <c r="G3">
-        <v>0.01671654929577465</v>
+        <v>0.02504862953138816</v>
       </c>
       <c r="H3">
-        <v>-0.001065140845070423</v>
+        <v>0.002060123784261716</v>
       </c>
       <c r="I3">
-        <v>-0.01241930107214032</v>
+        <v>-0.01282051282051282</v>
       </c>
       <c r="J3">
-        <v>-0.01241930107214032</v>
+        <v>-0.01282051282051282</v>
       </c>
       <c r="K3">
-        <v>-3.37</v>
+        <v>-2.62</v>
       </c>
       <c r="L3">
-        <v>-0.02966549295774648</v>
+        <v>-0.02316534040671972</v>
       </c>
       <c r="M3">
-        <v>0.387</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.02480769230769231</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0.1148367952522255</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.387</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.02480769230769231</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0.1148367952522255</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>8.220000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="V3">
-        <v>0.5269230769230769</v>
+        <v>0.8726114649681529</v>
+      </c>
+      <c r="W3">
+        <v>-0.1578313253012048</v>
       </c>
       <c r="X3">
-        <v>0.1385864164928725</v>
+        <v>0.1072654182157499</v>
+      </c>
+      <c r="Y3">
+        <v>-0.2650967435169547</v>
       </c>
       <c r="Z3">
-        <v>14.0174870463715</v>
+        <v>4.491660047656869</v>
       </c>
       <c r="AA3">
-        <v>-0.1740873919037147</v>
+        <v>-0.05758538522637012</v>
       </c>
       <c r="AB3">
-        <v>0.07183085679385511</v>
+        <v>0.05992321584424368</v>
       </c>
       <c r="AC3">
-        <v>-0.2459182486975698</v>
+        <v>-0.1175086010706138</v>
       </c>
       <c r="AD3">
-        <v>16.8</v>
+        <v>17.8</v>
       </c>
       <c r="AE3">
-        <v>8.104163008975704</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>24.9041630089757</v>
+        <v>17.8</v>
       </c>
       <c r="AG3">
-        <v>16.6841630089757</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.6148544040635269</v>
+        <v>0.5313432835820896</v>
       </c>
       <c r="AI3">
-        <v>0.6000401213630044</v>
+        <v>0.5345345345345346</v>
       </c>
       <c r="AJ3">
-        <v>0.5167909418725565</v>
+        <v>0.2070707070707071</v>
       </c>
       <c r="AK3">
-        <v>0.5012643101308121</v>
+        <v>0.2091836734693878</v>
       </c>
       <c r="AL3">
-        <v>0.294</v>
+        <v>1.05</v>
       </c>
       <c r="AM3">
-        <v>0.291</v>
+        <v>1.044</v>
       </c>
       <c r="AN3">
-        <v>5.867970660146701</v>
+        <v>10.17142857142857</v>
       </c>
       <c r="AO3">
-        <v>-10.37414965986395</v>
+        <v>-1.380952380952381</v>
       </c>
       <c r="AP3">
-        <v>5.82751065629609</v>
+        <v>2.342857142857144</v>
       </c>
       <c r="AQ3">
-        <v>-10.48109965635739</v>
+        <v>-1.388888888888889</v>
       </c>
     </row>
   </sheetData>
